--- a/Excel/StartSceneConfig@s.xlsx
+++ b/Excel/StartSceneConfig@s.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Unity\ETIdleGame\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFF9EBE5-860F-4DAA-9615-D6FD741D1E5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34AA43B0-720F-4BC3-BB72-1FD3C896AEF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="31">
   <si>
     <t>Id</t>
   </si>
@@ -117,6 +117,10 @@
   </si>
   <si>
     <t>Game</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rank</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -667,10 +671,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C3:H15"/>
+  <dimension ref="C3:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -926,6 +930,23 @@
       </c>
       <c r="G15" s="6" t="s">
         <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C16" s="3">
+        <v>11</v>
+      </c>
+      <c r="D16" s="3">
+        <v>1</v>
+      </c>
+      <c r="E16" s="3">
+        <v>1</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/StartSceneConfig@s.xlsx
+++ b/Excel/StartSceneConfig@s.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Unity\ETIdleGame\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34AA43B0-720F-4BC3-BB72-1FD3C896AEF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBAD8AFC-181B-49AC-83E5-6FF0E7690C18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="32">
   <si>
     <t>Id</t>
   </si>
@@ -121,6 +121,10 @@
   </si>
   <si>
     <t>Rank</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChatInfo</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -671,10 +675,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C3:H16"/>
+  <dimension ref="C3:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -947,6 +951,23 @@
       </c>
       <c r="G16" s="6" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C17" s="3">
+        <v>12</v>
+      </c>
+      <c r="D17" s="3">
+        <v>1</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
